--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados3.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>102531</v>
+        <v>101220</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1023,19 +1023,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>135000</v>
+        <v>180000</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>808650</v>
+        <v>450000</v>
       </c>
       <c r="H6">
-        <v>31464</v>
+        <v>24543</v>
       </c>
       <c r="I6">
-        <v>675000</v>
+        <v>450000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1059,23 +1059,23 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Municipal apartment</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O6">
-        <v>0.072508</v>
+        <v>0.020246</v>
       </c>
       <c r="P6">
-        <v>-14676</v>
+        <v>-9801</v>
       </c>
       <c r="Q6">
-        <v>-1191</v>
+        <v>-1071</v>
       </c>
       <c r="R6">
-        <v>-1747</v>
+        <v>-4546</v>
       </c>
       <c r="S6">
-        <v>-4792</v>
+        <v>-2492</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -1092,19 +1092,24 @@
       <c r="Y6">
         <v>0</v>
       </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1112,13 +1117,13 @@
         </is>
       </c>
       <c r="AF6">
-        <v>0.099</v>
+        <v>0.1206</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="AH6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <v>0</v>
@@ -1126,7 +1131,7 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>102638</v>
+        <v>101522</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1138,19 +1143,19 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>72000</v>
+        <v>157500</v>
       </c>
       <c r="F7">
         <v>30</v>
       </c>
       <c r="G7">
-        <v>781920</v>
+        <v>760225.5</v>
       </c>
       <c r="H7">
-        <v>41656.5</v>
+        <v>30150</v>
       </c>
       <c r="I7">
-        <v>675000</v>
+        <v>679500</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -1178,34 +1183,31 @@
         </is>
       </c>
       <c r="O7">
-        <v>0.018801</v>
+        <v>0.00733</v>
       </c>
       <c r="P7">
-        <v>-16783</v>
+        <v>-14222</v>
       </c>
       <c r="Q7">
-        <v>-1290</v>
+        <v>-1226</v>
       </c>
       <c r="R7">
-        <v>-8697</v>
+        <v>-6193</v>
       </c>
       <c r="S7">
-        <v>-294</v>
-      </c>
-      <c r="T7">
-        <v>17</v>
+        <v>-5059</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>1</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1223,7 +1225,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD7">
@@ -1231,17 +1233,17 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="AF7">
-        <v>0.09279999999999999</v>
+        <v>0.1175</v>
       </c>
       <c r="AG7">
-        <v>-593</v>
+        <v>-848</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1249,7 +1251,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>102752</v>
+        <v>102148</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1258,22 +1260,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>135000</v>
+        <v>99000</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>539100</v>
+        <v>213948</v>
       </c>
       <c r="H8">
-        <v>27652.5</v>
+        <v>14058</v>
       </c>
       <c r="I8">
-        <v>450000</v>
+        <v>189000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -1292,7 +1294,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Single / not married</t>
+          <t>Separated</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1301,19 +1303,19 @@
         </is>
       </c>
       <c r="O8">
-        <v>0.010643</v>
+        <v>0.020246</v>
       </c>
       <c r="P8">
-        <v>-14601</v>
+        <v>-16096</v>
       </c>
       <c r="Q8">
-        <v>-7623</v>
+        <v>-1887</v>
       </c>
       <c r="R8">
-        <v>-8859</v>
+        <v>-2933</v>
       </c>
       <c r="S8">
-        <v>-4256</v>
+        <v>-4582</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -1328,51 +1330,51 @@
         <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Business Entity Type 1</t>
         </is>
       </c>
       <c r="AF8">
-        <v>0.0619</v>
+        <v>0.0907</v>
       </c>
       <c r="AG8">
-        <v>-1328</v>
+        <v>-1126</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>102809</v>
+        <v>102369</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1381,19 +1383,19 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>112500</v>
+        <v>148500</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>648000</v>
+        <v>180000</v>
       </c>
       <c r="H9">
-        <v>19714.5</v>
+        <v>9000</v>
       </c>
       <c r="I9">
-        <v>648000</v>
+        <v>180000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -1402,7 +1404,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1412,7 +1414,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Single / not married</t>
+          <t>Widow</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1421,19 +1423,19 @@
         </is>
       </c>
       <c r="O9">
-        <v>0.01452</v>
+        <v>0.018209</v>
       </c>
       <c r="P9">
-        <v>-19824</v>
+        <v>-14284</v>
       </c>
       <c r="Q9">
-        <v>-1639</v>
+        <v>-3873</v>
       </c>
       <c r="R9">
-        <v>-9869</v>
+        <v>-7214</v>
       </c>
       <c r="S9">
-        <v>-3338</v>
+        <v>-2189</v>
       </c>
       <c r="U9">
         <v>1</v>
@@ -1454,29 +1456,29 @@
         <v>2</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>School</t>
         </is>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.399</v>
       </c>
       <c r="AG9">
-        <v>-683</v>
+        <v>-1370</v>
       </c>
       <c r="AH9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1484,7 +1486,7 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>103076</v>
+        <v>102531</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1496,16 +1498,16 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>121500</v>
+        <v>135000</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>675000</v>
+        <v>808650</v>
       </c>
       <c r="H10">
-        <v>21906</v>
+        <v>31464</v>
       </c>
       <c r="I10">
         <v>675000</v>
@@ -1517,7 +1519,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1532,23 +1534,23 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>House / apartment</t>
+          <t>Municipal apartment</t>
         </is>
       </c>
       <c r="O10">
-        <v>0.028663</v>
+        <v>0.072508</v>
       </c>
       <c r="P10">
-        <v>-15589</v>
+        <v>-14676</v>
       </c>
       <c r="Q10">
-        <v>-1872</v>
+        <v>-1191</v>
       </c>
       <c r="R10">
-        <v>-4711</v>
+        <v>-1747</v>
       </c>
       <c r="S10">
-        <v>-4633</v>
+        <v>-4792</v>
       </c>
       <c r="U10">
         <v>1</v>
@@ -1565,38 +1567,33 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Private service staff</t>
-        </is>
-      </c>
       <c r="AA10">
         <v>2</v>
       </c>
       <c r="AB10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF10">
-        <v>0.1072</v>
+        <v>0.099</v>
       </c>
       <c r="AG10">
-        <v>-641</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1604,31 +1601,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>103192</v>
+        <v>102638</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>112500</v>
+        <v>72000</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>684657</v>
+        <v>781920</v>
       </c>
       <c r="H11">
-        <v>22216.5</v>
+        <v>41656.5</v>
       </c>
       <c r="I11">
-        <v>571500</v>
+        <v>675000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1637,12 +1634,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1656,45 +1653,48 @@
         </is>
       </c>
       <c r="O11">
-        <v>0.018029</v>
+        <v>0.018801</v>
       </c>
       <c r="P11">
-        <v>-12736</v>
+        <v>-16783</v>
       </c>
       <c r="Q11">
-        <v>-4859</v>
+        <v>-1290</v>
       </c>
       <c r="R11">
-        <v>-1084</v>
+        <v>-8697</v>
       </c>
       <c r="S11">
-        <v>-4151</v>
+        <v>-294</v>
+      </c>
+      <c r="T11">
+        <v>17</v>
       </c>
       <c r="U11">
         <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -1702,18 +1702,18 @@
         </is>
       </c>
       <c r="AD11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>Transport: type 2</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF11">
-        <v>0.0608</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>-593</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1724,31 +1724,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>103691</v>
+        <v>102752</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>157500</v>
+        <v>135000</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12">
-        <v>1042560</v>
+        <v>539100</v>
       </c>
       <c r="H12">
-        <v>34587</v>
+        <v>27652.5</v>
       </c>
       <c r="I12">
-        <v>900000</v>
+        <v>450000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1776,19 +1776,19 @@
         </is>
       </c>
       <c r="O12">
-        <v>0.006233</v>
+        <v>0.010643</v>
       </c>
       <c r="P12">
-        <v>-14344</v>
+        <v>-14601</v>
       </c>
       <c r="Q12">
-        <v>-104</v>
+        <v>-7623</v>
       </c>
       <c r="R12">
-        <v>-7748</v>
+        <v>-8859</v>
       </c>
       <c r="S12">
-        <v>-4606</v>
+        <v>-4256</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -1803,11 +1803,11 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA12">
@@ -1818,36 +1818,36 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>Construction</t>
+          <t>Medicine</t>
         </is>
       </c>
       <c r="AF12">
-        <v>0.07530000000000001</v>
+        <v>0.0619</v>
       </c>
       <c r="AG12">
-        <v>-1359</v>
+        <v>-1328</v>
       </c>
       <c r="AH12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>103956</v>
+        <v>102809</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1856,19 +1856,19 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>99000</v>
+        <v>112500</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>168102</v>
+        <v>648000</v>
       </c>
       <c r="H13">
-        <v>16753.5</v>
+        <v>19714.5</v>
       </c>
       <c r="I13">
-        <v>148500</v>
+        <v>648000</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1877,17 +1877,17 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Widow</t>
+          <t>Single / not married</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1896,19 +1896,19 @@
         </is>
       </c>
       <c r="O13">
-        <v>0.014464</v>
+        <v>0.01452</v>
       </c>
       <c r="P13">
-        <v>-18639</v>
+        <v>-19824</v>
       </c>
       <c r="Q13">
-        <v>-1664</v>
+        <v>-1639</v>
       </c>
       <c r="R13">
-        <v>-5524</v>
+        <v>-9869</v>
       </c>
       <c r="S13">
-        <v>-2200</v>
+        <v>-3338</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -1925,11 +1925,6 @@
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Laborers</t>
-        </is>
-      </c>
       <c r="AA13">
         <v>2</v>
       </c>
@@ -1938,57 +1933,57 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD13">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>Industry: type 12</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AF13">
-        <v>0.0485</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>-683</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>104674</v>
+        <v>103076</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>126000</v>
+        <v>121500</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>679500</v>
+        <v>675000</v>
       </c>
       <c r="H14">
-        <v>19998</v>
+        <v>21906</v>
       </c>
       <c r="I14">
-        <v>679500</v>
+        <v>675000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1997,7 +1992,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2007,7 +2002,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Single / not married</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2016,22 +2011,19 @@
         </is>
       </c>
       <c r="O14">
-        <v>0.025164</v>
+        <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-13902</v>
+        <v>-15589</v>
       </c>
       <c r="Q14">
-        <v>-2014</v>
+        <v>-1872</v>
       </c>
       <c r="R14">
-        <v>-2649</v>
+        <v>-4711</v>
       </c>
       <c r="S14">
-        <v>-4084</v>
-      </c>
-      <c r="T14">
-        <v>15</v>
+        <v>-4633</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -2050,11 +2042,11 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Private service staff</t>
         </is>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB14">
         <v>2</v>
@@ -2065,21 +2057,21 @@
         </is>
       </c>
       <c r="AD14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>Housing</t>
+          <t>Self-employed</t>
         </is>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>0.1072</v>
       </c>
       <c r="AG14">
-        <v>-1700</v>
+        <v>-641</v>
       </c>
       <c r="AH14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2087,7 +2079,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>104982</v>
+        <v>103123</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2099,19 +2091,19 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>157500</v>
+        <v>90000</v>
       </c>
       <c r="F15">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G15">
-        <v>894906</v>
+        <v>412942.5</v>
       </c>
       <c r="H15">
-        <v>26293.5</v>
+        <v>27724.5</v>
       </c>
       <c r="I15">
-        <v>747000</v>
+        <v>373500</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -2120,7 +2112,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2130,7 +2122,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Single / not married</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2139,19 +2131,22 @@
         </is>
       </c>
       <c r="O15">
-        <v>0.072508</v>
+        <v>0.030755</v>
       </c>
       <c r="P15">
-        <v>-15043</v>
+        <v>-16574</v>
       </c>
       <c r="Q15">
-        <v>-1506</v>
+        <v>-453</v>
       </c>
       <c r="R15">
-        <v>-14881</v>
+        <v>-6619</v>
       </c>
       <c r="S15">
-        <v>-464</v>
+        <v>-115</v>
+      </c>
+      <c r="T15">
+        <v>22</v>
       </c>
       <c r="U15">
         <v>1</v>
@@ -2177,29 +2172,29 @@
         <v>2</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>Business Entity Type 2</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="AF15">
-        <v>0.2034</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>-1360</v>
       </c>
       <c r="AH15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AI15">
         <v>0</v>
@@ -2207,7 +2202,7 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>105182</v>
+        <v>103192</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2219,19 +2214,19 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>166500</v>
+        <v>112500</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>397017</v>
+        <v>684657</v>
       </c>
       <c r="H16">
-        <v>20398.5</v>
+        <v>22216.5</v>
       </c>
       <c r="I16">
-        <v>301500</v>
+        <v>571500</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -2245,12 +2240,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Incomplete higher</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Single / not married</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -2259,19 +2254,19 @@
         </is>
       </c>
       <c r="O16">
-        <v>0.020246</v>
+        <v>0.018029</v>
       </c>
       <c r="P16">
-        <v>-13660</v>
+        <v>-12736</v>
       </c>
       <c r="Q16">
-        <v>-2134</v>
+        <v>-4859</v>
       </c>
       <c r="R16">
-        <v>-518</v>
+        <v>-1084</v>
       </c>
       <c r="S16">
-        <v>-5337</v>
+        <v>-4151</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -2305,18 +2300,18 @@
         </is>
       </c>
       <c r="AD16">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>Security Ministries</t>
+          <t>Transport: type 2</t>
         </is>
       </c>
       <c r="AF16">
-        <v>0.0165</v>
+        <v>0.0608</v>
       </c>
       <c r="AG16">
-        <v>-276</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2327,7 +2322,7 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>105193</v>
+        <v>103646</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2339,19 +2334,19 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>112500</v>
+        <v>180000</v>
       </c>
       <c r="F17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G17">
-        <v>454500</v>
+        <v>704844</v>
       </c>
       <c r="H17">
-        <v>27936</v>
+        <v>34038</v>
       </c>
       <c r="I17">
-        <v>454500</v>
+        <v>630000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -2360,7 +2355,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2370,7 +2365,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Single / not married</t>
+          <t>Separated</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2379,19 +2374,19 @@
         </is>
       </c>
       <c r="O17">
-        <v>0.008019</v>
+        <v>0.072508</v>
       </c>
       <c r="P17">
-        <v>-12836</v>
+        <v>-10119</v>
       </c>
       <c r="Q17">
-        <v>-2189</v>
+        <v>-914</v>
       </c>
       <c r="R17">
-        <v>-2353</v>
+        <v>-4675</v>
       </c>
       <c r="S17">
-        <v>-4775</v>
+        <v>-1685</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -2410,36 +2405,36 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Core staff</t>
         </is>
       </c>
       <c r="AA17">
         <v>2</v>
       </c>
       <c r="AB17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD17">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>Trade: type 1</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF17">
-        <v>0.1031</v>
+        <v>0.261</v>
       </c>
       <c r="AG17">
-        <v>-1550</v>
+        <v>-150</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI17">
         <v>0</v>
@@ -2447,7 +2442,7 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>105210</v>
+        <v>103691</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2459,19 +2454,19 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>112500</v>
+        <v>157500</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G18">
-        <v>397881</v>
+        <v>1042560</v>
       </c>
       <c r="H18">
-        <v>15129</v>
+        <v>34587</v>
       </c>
       <c r="I18">
-        <v>328500</v>
+        <v>900000</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -2490,7 +2485,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Single / not married</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2499,19 +2494,19 @@
         </is>
       </c>
       <c r="O18">
-        <v>0.00702</v>
+        <v>0.006233</v>
       </c>
       <c r="P18">
-        <v>-16918</v>
+        <v>-14344</v>
       </c>
       <c r="Q18">
-        <v>-1868</v>
+        <v>-104</v>
       </c>
       <c r="R18">
-        <v>-9370</v>
+        <v>-7748</v>
       </c>
       <c r="S18">
-        <v>-472</v>
+        <v>-4606</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -2526,11 +2521,11 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>Security staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA18">
@@ -2541,25 +2536,25 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD18">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="AF18">
-        <v>0.0615</v>
+        <v>0.07530000000000001</v>
       </c>
       <c r="AG18">
-        <v>-347</v>
+        <v>-1359</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI18">
         <v>0</v>
@@ -2567,7 +2562,7 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>105492</v>
+        <v>103956</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2579,38 +2574,38 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>90000</v>
+        <v>99000</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>247500</v>
+        <v>168102</v>
       </c>
       <c r="H19">
-        <v>12375</v>
+        <v>16753.5</v>
       </c>
       <c r="I19">
-        <v>247500</v>
+        <v>148500</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Children</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Widow</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2619,19 +2614,19 @@
         </is>
       </c>
       <c r="O19">
-        <v>0.008068000000000001</v>
+        <v>0.014464</v>
       </c>
       <c r="P19">
-        <v>-15988</v>
+        <v>-18639</v>
       </c>
       <c r="Q19">
-        <v>-4080</v>
+        <v>-1664</v>
       </c>
       <c r="R19">
-        <v>-3497</v>
+        <v>-5524</v>
       </c>
       <c r="S19">
-        <v>-1624</v>
+        <v>-2200</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -2643,75 +2638,75 @@
         <v>1</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Cleaning staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA19">
         <v>2</v>
       </c>
       <c r="AB19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>SATURDAY</t>
         </is>
       </c>
       <c r="AD19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Industry: type 12</t>
         </is>
       </c>
       <c r="AF19">
-        <v>0.0701</v>
+        <v>0.0485</v>
       </c>
       <c r="AG19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH19">
         <v>1</v>
       </c>
       <c r="AI19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>105613</v>
+        <v>104195</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>202500</v>
+        <v>171000</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G20">
-        <v>1258650</v>
+        <v>1056447</v>
       </c>
       <c r="H20">
-        <v>56277</v>
+        <v>31018.5</v>
       </c>
       <c r="I20">
-        <v>1125000</v>
+        <v>922500</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -2730,7 +2725,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Single / not married</t>
+          <t>Separated</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2739,19 +2734,22 @@
         </is>
       </c>
       <c r="O20">
-        <v>0.0228</v>
+        <v>0.010966</v>
       </c>
       <c r="P20">
-        <v>-13927</v>
+        <v>-14092</v>
       </c>
       <c r="Q20">
-        <v>-6529</v>
+        <v>-5183</v>
       </c>
       <c r="R20">
-        <v>-5274</v>
+        <v>-8209</v>
       </c>
       <c r="S20">
-        <v>-4701</v>
+        <v>-4324</v>
+      </c>
+      <c r="T20">
+        <v>10</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -2770,33 +2768,33 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>Private service staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB20">
         <v>2</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>TUESDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>Self-employed</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="AF20">
-        <v>0.0784</v>
+        <v>0.1031</v>
       </c>
       <c r="AG20">
-        <v>-593</v>
+        <v>-1355</v>
       </c>
       <c r="AH20">
         <v>3</v>
@@ -2807,10 +2805,10 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>106478</v>
+        <v>104251</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2819,19 +2817,19 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>157500</v>
+        <v>153000</v>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>1056447</v>
+        <v>675000</v>
       </c>
       <c r="H21">
-        <v>34209</v>
+        <v>32602.5</v>
       </c>
       <c r="I21">
-        <v>922500</v>
+        <v>675000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -2845,33 +2843,36 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Single / not married</t>
+          <t>Separated</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>With parents</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O21">
-        <v>0.020246</v>
+        <v>0.008625000000000001</v>
       </c>
       <c r="P21">
-        <v>-15154</v>
+        <v>-11051</v>
       </c>
       <c r="Q21">
-        <v>-2564</v>
+        <v>-3827</v>
       </c>
       <c r="R21">
-        <v>-2789</v>
+        <v>-4658</v>
       </c>
       <c r="S21">
-        <v>-2029</v>
+        <v>-2295</v>
+      </c>
+      <c r="T21">
+        <v>19</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -2890,33 +2891,33 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA21">
         <v>2</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>TUESDAY</t>
         </is>
       </c>
       <c r="AD21">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>Government</t>
+          <t>Trade: type 6</t>
         </is>
       </c>
       <c r="AF21">
-        <v>0.0959</v>
+        <v>0.0737</v>
       </c>
       <c r="AG21">
-        <v>-230</v>
+        <v>-2340</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2927,40 +2928,40 @@
     </row>
     <row r="22">
       <c r="A22">
-        <v>106605</v>
+        <v>104632</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>90000</v>
+        <v>157500</v>
       </c>
       <c r="F22">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>753840</v>
+        <v>313438.5</v>
       </c>
       <c r="H22">
-        <v>22171.5</v>
+        <v>21073.5</v>
       </c>
       <c r="I22">
-        <v>540000</v>
+        <v>283500</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2979,19 +2980,19 @@
         </is>
       </c>
       <c r="O22">
-        <v>0.010006</v>
+        <v>0.014464</v>
       </c>
       <c r="P22">
-        <v>-15013</v>
+        <v>-16910</v>
       </c>
       <c r="Q22">
-        <v>-2892</v>
+        <v>-3249</v>
       </c>
       <c r="R22">
-        <v>-7849</v>
+        <v>-9496</v>
       </c>
       <c r="S22">
-        <v>-4300</v>
+        <v>-452</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -3003,43 +3004,43 @@
         <v>1</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>Core staff</t>
+          <t>Drivers</t>
         </is>
       </c>
       <c r="AA22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB22">
         <v>2</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>THURSDAY</t>
+          <t>MONDAY</t>
         </is>
       </c>
       <c r="AD22">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>Kindergarten</t>
+          <t>Security</t>
         </is>
       </c>
       <c r="AF22">
-        <v>0.0619</v>
+        <v>0.1485</v>
       </c>
       <c r="AG22">
-        <v>-1518</v>
+        <v>-398</v>
       </c>
       <c r="AH22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -3047,40 +3048,45 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>106785</v>
+        <v>104674</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>157500</v>
+        <v>126000</v>
       </c>
       <c r="F23">
         <v>15</v>
       </c>
       <c r="G23">
-        <v>808650</v>
+        <v>679500</v>
       </c>
       <c r="H23">
-        <v>23305.5</v>
+        <v>19998</v>
       </c>
       <c r="I23">
-        <v>675000</v>
+        <v>679500</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -3090,23 +3096,26 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>With parents</t>
+          <t>House / apartment</t>
         </is>
       </c>
       <c r="O23">
-        <v>0.04622</v>
+        <v>0.025164</v>
       </c>
       <c r="P23">
-        <v>-11565</v>
+        <v>-13902</v>
       </c>
       <c r="Q23">
-        <v>-4567</v>
+        <v>-2014</v>
       </c>
       <c r="R23">
-        <v>-6042</v>
+        <v>-2649</v>
       </c>
       <c r="S23">
-        <v>-3749</v>
+        <v>-4084</v>
+      </c>
+      <c r="T23">
+        <v>15</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -3125,36 +3134,36 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>Managers</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD23">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Housing</t>
         </is>
       </c>
       <c r="AF23">
-        <v>0.2309</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI23">
         <v>0</v>
@@ -3162,7 +3171,7 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>107074</v>
+        <v>104855</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3174,19 +3183,19 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>135000</v>
+        <v>202500</v>
       </c>
       <c r="F24">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="G24">
-        <v>630000</v>
+        <v>855463.5</v>
       </c>
       <c r="H24">
-        <v>26689.5</v>
+        <v>52465.5</v>
       </c>
       <c r="I24">
-        <v>630000</v>
+        <v>747000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -3195,17 +3204,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Secondary / secondary special</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Separated</t>
+          <t>Widow</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -3214,19 +3223,19 @@
         </is>
       </c>
       <c r="O24">
-        <v>0.006852</v>
+        <v>0.032561</v>
       </c>
       <c r="P24">
-        <v>-15740</v>
+        <v>-19540</v>
       </c>
       <c r="Q24">
-        <v>-5459</v>
+        <v>-623</v>
       </c>
       <c r="R24">
-        <v>-212</v>
+        <v>-1017</v>
       </c>
       <c r="S24">
-        <v>-570</v>
+        <v>-3082</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -3245,33 +3254,33 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Medicine staff</t>
+          <t>Security staff</t>
         </is>
       </c>
       <c r="AA24">
         <v>2</v>
       </c>
       <c r="AB24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>FRIDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>Medicine</t>
+          <t>Business Entity Type 3</t>
         </is>
       </c>
       <c r="AF24">
-        <v>0.3866</v>
+        <v>0.0412</v>
       </c>
       <c r="AG24">
-        <v>-1695</v>
+        <v>-1754</v>
       </c>
       <c r="AH24">
         <v>3</v>
@@ -3282,31 +3291,31 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>107075</v>
+        <v>104982</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>135000</v>
+        <v>157500</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
       <c r="G25">
-        <v>628114.5</v>
+        <v>894906</v>
       </c>
       <c r="H25">
-        <v>25218</v>
+        <v>26293.5</v>
       </c>
       <c r="I25">
-        <v>477000</v>
+        <v>747000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Working</t>
+          <t>Commercial associate</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3334,19 +3343,19 @@
         </is>
       </c>
       <c r="O25">
-        <v>0.022625</v>
+        <v>0.072508</v>
       </c>
       <c r="P25">
-        <v>-16053</v>
+        <v>-15043</v>
       </c>
       <c r="Q25">
-        <v>-1807</v>
+        <v>-1506</v>
       </c>
       <c r="R25">
-        <v>-5167</v>
+        <v>-14881</v>
       </c>
       <c r="S25">
-        <v>-4194</v>
+        <v>-464</v>
       </c>
       <c r="U25">
         <v>1</v>
@@ -3358,43 +3367,43 @@
         <v>1</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Sales staff</t>
+          <t>Laborers</t>
         </is>
       </c>
       <c r="AA25">
         <v>2</v>
       </c>
       <c r="AB25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>WEDNESDAY</t>
+          <t>THURSDAY</t>
         </is>
       </c>
       <c r="AD25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>Business Entity Type 3</t>
+          <t>Business Entity Type 2</t>
         </is>
       </c>
       <c r="AF25">
-        <v>0.1227</v>
+        <v>0.2034</v>
       </c>
       <c r="AG25">
-        <v>-1788</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -3402,7 +3411,7 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>107090</v>
+        <v>105029</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3414,19 +3423,19 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>58500</v>
+        <v>112500</v>
       </c>
       <c r="F26">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>339241.5</v>
+        <v>299772</v>
       </c>
       <c r="H26">
-        <v>12919.5</v>
+        <v>14580</v>
       </c>
       <c r="I26">
-        <v>238500</v>
+        <v>247500</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -3435,12 +3444,12 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>State servant</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Higher education</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3454,19 +3463,22 @@
         </is>
       </c>
       <c r="O26">
-        <v>0.028663</v>
+        <v>0.019689</v>
       </c>
       <c r="P26">
-        <v>-15177</v>
+        <v>-10028</v>
       </c>
       <c r="Q26">
-        <v>-7786</v>
+        <v>-1618</v>
       </c>
       <c r="R26">
-        <v>-3562</v>
+        <v>-4593</v>
       </c>
       <c r="S26">
-        <v>-4381</v>
+        <v>-2680</v>
+      </c>
+      <c r="T26">
+        <v>8</v>
       </c>
       <c r="U26">
         <v>1</v>
@@ -3496,25 +3508,25 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>MONDAY</t>
+          <t>WEDNESDAY</t>
         </is>
       </c>
       <c r="AD26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Bank</t>
         </is>
       </c>
       <c r="AF26">
-        <v>0.07679999999999999</v>
+        <v>0.0505</v>
       </c>
       <c r="AG26">
-        <v>-1871</v>
+        <v>-2409</v>
       </c>
       <c r="AH26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -3522,7 +3534,7 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>107324</v>
+        <v>105129</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3531,31 +3543,31 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>180000</v>
+        <v>162000</v>
       </c>
       <c r="F27">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="G27">
-        <v>1223010</v>
+        <v>454500</v>
       </c>
       <c r="H27">
-        <v>48631.5</v>
+        <v>25506</v>
       </c>
       <c r="I27">
-        <v>1125000</v>
+        <v>454500</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Family</t>
+          <t>Unaccompanied</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Commercial associate</t>
+          <t>Working</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3574,19 +3586,19 @@
         </is>
       </c>
       <c r="O27">
-        <v>0.04622</v>
+        <v>0.026392</v>
       </c>
       <c r="P27">
-        <v>-14125</v>
+        <v>-13250</v>
       </c>
       <c r="Q27">
-        <v>-446</v>
+        <v>-1170</v>
       </c>
       <c r="R27">
-        <v>-2222</v>
+        <v>-7212</v>
       </c>
       <c r="S27">
-        <v>-2222</v>
+        <v>-4711</v>
       </c>
       <c r="U27">
         <v>1</v>
@@ -3598,40 +3610,40 @@
         <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>Laborers</t>
+          <t>Sales staff</t>
         </is>
       </c>
       <c r="AA27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>SATURDAY</t>
+          <t>FRIDAY</t>
         </is>
       </c>
       <c r="AD27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>Transport: type 4</t>
+          <t>Trade: type 3</t>
         </is>
       </c>
       <c r="AF27">
-        <v>0.008200000000000001</v>
+        <v>0.0825</v>
       </c>
       <c r="AG27">
-        <v>-1290</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>1</v>
@@ -3642,7 +3654,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>107639</v>
+        <v>105182</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3654,19 +3666,19 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>180000</v>
+        <v>166500</v>
       </c>
       <c r="F28">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>1056447</v>
+        <v>397017</v>
       </c>
       <c r="H28">
-        <v>31018.5</v>
+        <v>20398.5</v>
       </c>
       <c r="I28">
-        <v>922500</v>
+        <v>301500</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -3675,17 +3687,17 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Pensioner</t>
+          <t>State servant</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Secondary / secondary special</t>
+          <t>Incomplete higher</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Widow</t>
+          <t>Separated</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3694,22 +3706,22 @@
         </is>
       </c>
       <c r="O28">
-        <v>0.018029</v>
+        <v>0.020246</v>
       </c>
       <c r="P28">
-        <v>-21199</v>
+        <v>-13660</v>
       </c>
       <c r="Q28">
-        <v>365243</v>
+        <v>-2134</v>
       </c>
       <c r="R28">
-        <v>-9174</v>
+        <v>-518</v>
       </c>
       <c r="S28">
-        <v>-4619</v>
+        <v>-5337</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3722,6 +3734,11 @@
       </c>
       <c r="Y28">
         <v>0</v>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
       </c>
       <c r="AA28">
         <v>3</v>
@@ -3731,27 +3748,2661 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD28">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>Security Ministries</t>
+        </is>
+      </c>
+      <c r="AF28">
+        <v>0.0165</v>
+      </c>
+      <c r="AG28">
+        <v>-276</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>105193</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>112500</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>454500</v>
+      </c>
+      <c r="H29">
+        <v>27936</v>
+      </c>
+      <c r="I29">
+        <v>454500</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O29">
+        <v>0.008019</v>
+      </c>
+      <c r="P29">
+        <v>-12836</v>
+      </c>
+      <c r="Q29">
+        <v>-2189</v>
+      </c>
+      <c r="R29">
+        <v>-2353</v>
+      </c>
+      <c r="S29">
+        <v>-4775</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29">
+        <v>2</v>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD29">
+        <v>16</v>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>Trade: type 1</t>
+        </is>
+      </c>
+      <c r="AF29">
+        <v>0.1031</v>
+      </c>
+      <c r="AG29">
+        <v>-1550</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>105210</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>112500</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>397881</v>
+      </c>
+      <c r="H30">
+        <v>15129</v>
+      </c>
+      <c r="I30">
+        <v>328500</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O30">
+        <v>0.00702</v>
+      </c>
+      <c r="P30">
+        <v>-16918</v>
+      </c>
+      <c r="Q30">
+        <v>-1868</v>
+      </c>
+      <c r="R30">
+        <v>-9370</v>
+      </c>
+      <c r="S30">
+        <v>-472</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>Security staff</t>
+        </is>
+      </c>
+      <c r="AA30">
+        <v>2</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
           <t>TUESDAY</t>
         </is>
       </c>
-      <c r="AD28">
+      <c r="AD30">
+        <v>14</v>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="AF30">
+        <v>0.0615</v>
+      </c>
+      <c r="AG30">
+        <v>-347</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>105398</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>135000</v>
+      </c>
+      <c r="F31">
+        <v>50</v>
+      </c>
+      <c r="G31">
+        <v>497520</v>
+      </c>
+      <c r="H31">
+        <v>33376.5</v>
+      </c>
+      <c r="I31">
+        <v>450000</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O31">
+        <v>0.0228</v>
+      </c>
+      <c r="P31">
+        <v>-11223</v>
+      </c>
+      <c r="Q31">
+        <v>-374</v>
+      </c>
+      <c r="R31">
+        <v>-2378</v>
+      </c>
+      <c r="S31">
+        <v>-1794</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA31">
+        <v>2</v>
+      </c>
+      <c r="AB31">
+        <v>2</v>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD31">
+        <v>8</v>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF31">
+        <v>0.2258</v>
+      </c>
+      <c r="AG31">
+        <v>-1102</v>
+      </c>
+      <c r="AH31">
+        <v>4</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>105492</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>90000</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>247500</v>
+      </c>
+      <c r="H32">
+        <v>12375</v>
+      </c>
+      <c r="I32">
+        <v>247500</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Children</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>State servant</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O32">
+        <v>0.008068000000000001</v>
+      </c>
+      <c r="P32">
+        <v>-15988</v>
+      </c>
+      <c r="Q32">
+        <v>-4080</v>
+      </c>
+      <c r="R32">
+        <v>-3497</v>
+      </c>
+      <c r="S32">
+        <v>-1624</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>Cleaning staff</t>
+        </is>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>3</v>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD32">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AF32">
+        <v>0.0701</v>
+      </c>
+      <c r="AG32">
+        <v>-1</v>
+      </c>
+      <c r="AH32">
+        <v>1</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>105613</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>202500</v>
+      </c>
+      <c r="F33">
+        <v>25</v>
+      </c>
+      <c r="G33">
+        <v>1258650</v>
+      </c>
+      <c r="H33">
+        <v>56277</v>
+      </c>
+      <c r="I33">
+        <v>1125000</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O33">
+        <v>0.0228</v>
+      </c>
+      <c r="P33">
+        <v>-13927</v>
+      </c>
+      <c r="Q33">
+        <v>-6529</v>
+      </c>
+      <c r="R33">
+        <v>-5274</v>
+      </c>
+      <c r="S33">
+        <v>-4701</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>Private service staff</t>
+        </is>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="AD33">
+        <v>8</v>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF33">
+        <v>0.0784</v>
+      </c>
+      <c r="AG33">
+        <v>-593</v>
+      </c>
+      <c r="AH33">
+        <v>3</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>105733</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>157500</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>675000</v>
+      </c>
+      <c r="H34">
+        <v>26284.5</v>
+      </c>
+      <c r="I34">
+        <v>675000</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O34">
+        <v>0.008625000000000001</v>
+      </c>
+      <c r="P34">
+        <v>-16727</v>
+      </c>
+      <c r="Q34">
+        <v>-216</v>
+      </c>
+      <c r="R34">
+        <v>-6809</v>
+      </c>
+      <c r="S34">
+        <v>-267</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD34">
+        <v>11</v>
+      </c>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF34">
+        <v>0.0742</v>
+      </c>
+      <c r="AG34">
+        <v>-2642</v>
+      </c>
+      <c r="AH34">
+        <v>5</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>106478</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>157500</v>
+      </c>
+      <c r="F35">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>1056447</v>
+      </c>
+      <c r="H35">
+        <v>34209</v>
+      </c>
+      <c r="I35">
+        <v>922500</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>With parents</t>
+        </is>
+      </c>
+      <c r="O35">
+        <v>0.020246</v>
+      </c>
+      <c r="P35">
+        <v>-15154</v>
+      </c>
+      <c r="Q35">
+        <v>-2564</v>
+      </c>
+      <c r="R35">
+        <v>-2789</v>
+      </c>
+      <c r="S35">
+        <v>-2029</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA35">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD35">
+        <v>14</v>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AF35">
+        <v>0.0959</v>
+      </c>
+      <c r="AG35">
+        <v>-230</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>106605</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>90000</v>
+      </c>
+      <c r="F36">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>753840</v>
+      </c>
+      <c r="H36">
+        <v>22171.5</v>
+      </c>
+      <c r="I36">
+        <v>540000</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O36">
+        <v>0.010006</v>
+      </c>
+      <c r="P36">
+        <v>-15013</v>
+      </c>
+      <c r="Q36">
+        <v>-2892</v>
+      </c>
+      <c r="R36">
+        <v>-7849</v>
+      </c>
+      <c r="S36">
+        <v>-4300</v>
+      </c>
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA36">
+        <v>3</v>
+      </c>
+      <c r="AB36">
+        <v>2</v>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD36">
+        <v>14</v>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>Kindergarten</t>
+        </is>
+      </c>
+      <c r="AF36">
+        <v>0.0619</v>
+      </c>
+      <c r="AG36">
+        <v>-1518</v>
+      </c>
+      <c r="AH36">
+        <v>2</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>106785</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>157500</v>
+      </c>
+      <c r="F37">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>808650</v>
+      </c>
+      <c r="H37">
+        <v>23305.5</v>
+      </c>
+      <c r="I37">
+        <v>675000</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>With parents</t>
+        </is>
+      </c>
+      <c r="O37">
+        <v>0.04622</v>
+      </c>
+      <c r="P37">
+        <v>-11565</v>
+      </c>
+      <c r="Q37">
+        <v>-4567</v>
+      </c>
+      <c r="R37">
+        <v>-6042</v>
+      </c>
+      <c r="S37">
+        <v>-3749</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>Managers</t>
+        </is>
+      </c>
+      <c r="AA37">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD37">
+        <v>11</v>
+      </c>
+      <c r="AE37" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF37">
+        <v>0.2309</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>107010</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>112500</v>
+      </c>
+      <c r="F38">
+        <v>45</v>
+      </c>
+      <c r="G38">
+        <v>640080</v>
+      </c>
+      <c r="H38">
+        <v>20929.5</v>
+      </c>
+      <c r="I38">
+        <v>450000</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O38">
+        <v>0.019101</v>
+      </c>
+      <c r="P38">
+        <v>-10009</v>
+      </c>
+      <c r="Q38">
+        <v>-158</v>
+      </c>
+      <c r="R38">
+        <v>-375</v>
+      </c>
+      <c r="S38">
+        <v>-1495</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA38">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>2</v>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD38">
+        <v>18</v>
+      </c>
+      <c r="AE38" t="inlineStr">
+        <is>
+          <t>Kindergarten</t>
+        </is>
+      </c>
+      <c r="AF38">
+        <v>0.06909999999999999</v>
+      </c>
+      <c r="AG38">
+        <v>-6</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>107074</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>135000</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>630000</v>
+      </c>
+      <c r="H39">
+        <v>26689.5</v>
+      </c>
+      <c r="I39">
+        <v>630000</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>State servant</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O39">
+        <v>0.006852</v>
+      </c>
+      <c r="P39">
+        <v>-15740</v>
+      </c>
+      <c r="Q39">
+        <v>-5459</v>
+      </c>
+      <c r="R39">
+        <v>-212</v>
+      </c>
+      <c r="S39">
+        <v>-570</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>Medicine staff</t>
+        </is>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>3</v>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD39">
+        <v>10</v>
+      </c>
+      <c r="AE39" t="inlineStr">
+        <is>
+          <t>Medicine</t>
+        </is>
+      </c>
+      <c r="AF39">
+        <v>0.3866</v>
+      </c>
+      <c r="AG39">
+        <v>-1695</v>
+      </c>
+      <c r="AH39">
+        <v>3</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>107075</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>135000</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>628114.5</v>
+      </c>
+      <c r="H40">
+        <v>25218</v>
+      </c>
+      <c r="I40">
+        <v>477000</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O40">
+        <v>0.022625</v>
+      </c>
+      <c r="P40">
+        <v>-16053</v>
+      </c>
+      <c r="Q40">
+        <v>-1807</v>
+      </c>
+      <c r="R40">
+        <v>-5167</v>
+      </c>
+      <c r="S40">
+        <v>-4194</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD40">
+        <v>15</v>
+      </c>
+      <c r="AE40" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF40">
+        <v>0.1227</v>
+      </c>
+      <c r="AG40">
+        <v>-1788</v>
+      </c>
+      <c r="AH40">
+        <v>4</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>107090</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>58500</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>339241.5</v>
+      </c>
+      <c r="H41">
+        <v>12919.5</v>
+      </c>
+      <c r="I41">
+        <v>238500</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>State servant</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O41">
+        <v>0.028663</v>
+      </c>
+      <c r="P41">
+        <v>-15177</v>
+      </c>
+      <c r="Q41">
+        <v>-7786</v>
+      </c>
+      <c r="R41">
+        <v>-3562</v>
+      </c>
+      <c r="S41">
+        <v>-4381</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>2</v>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD41">
+        <v>15</v>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="AF41">
+        <v>0.07679999999999999</v>
+      </c>
+      <c r="AG41">
+        <v>-1871</v>
+      </c>
+      <c r="AH41">
+        <v>1</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>107324</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>180000</v>
+      </c>
+      <c r="F42">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>1223010</v>
+      </c>
+      <c r="H42">
+        <v>48631.5</v>
+      </c>
+      <c r="I42">
+        <v>1125000</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O42">
+        <v>0.04622</v>
+      </c>
+      <c r="P42">
+        <v>-14125</v>
+      </c>
+      <c r="Q42">
+        <v>-446</v>
+      </c>
+      <c r="R42">
+        <v>-2222</v>
+      </c>
+      <c r="S42">
+        <v>-2222</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA42">
+        <v>3</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>SATURDAY</t>
+        </is>
+      </c>
+      <c r="AD42">
+        <v>14</v>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>Transport: type 4</t>
+        </is>
+      </c>
+      <c r="AF42">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="AG42">
+        <v>-1290</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>107333</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>135000</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>345510</v>
+      </c>
+      <c r="H43">
+        <v>18873</v>
+      </c>
+      <c r="I43">
+        <v>247500</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O43">
+        <v>0.02461</v>
+      </c>
+      <c r="P43">
+        <v>-15153</v>
+      </c>
+      <c r="Q43">
+        <v>-7443</v>
+      </c>
+      <c r="R43">
+        <v>-2067</v>
+      </c>
+      <c r="S43">
+        <v>-4935</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+      <c r="U43">
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>Core staff</t>
+        </is>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>2</v>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>THURSDAY</t>
+        </is>
+      </c>
+      <c r="AD43">
+        <v>11</v>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="AF43">
+        <v>0.1474</v>
+      </c>
+      <c r="AG43">
+        <v>-326</v>
+      </c>
+      <c r="AH43">
+        <v>3</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>107639</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>180000</v>
+      </c>
+      <c r="F44">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>1056447</v>
+      </c>
+      <c r="H44">
+        <v>31018.5</v>
+      </c>
+      <c r="I44">
+        <v>922500</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Pensioner</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Widow</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O44">
+        <v>0.018029</v>
+      </c>
+      <c r="P44">
+        <v>-21199</v>
+      </c>
+      <c r="Q44">
+        <v>365243</v>
+      </c>
+      <c r="R44">
+        <v>-9174</v>
+      </c>
+      <c r="S44">
+        <v>-4619</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>3</v>
+      </c>
+      <c r="AB44">
+        <v>3</v>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>TUESDAY</t>
+        </is>
+      </c>
+      <c r="AD44">
         <v>9</v>
       </c>
-      <c r="AE28" t="inlineStr">
+      <c r="AE44" t="inlineStr">
         <is>
           <t>XNA</t>
         </is>
       </c>
-      <c r="AF28">
+      <c r="AF44">
         <v>0.1784</v>
       </c>
-      <c r="AG28">
+      <c r="AG44">
         <v>-1558</v>
       </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>107679</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>135000</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>927252</v>
+      </c>
+      <c r="H45">
+        <v>26703</v>
+      </c>
+      <c r="I45">
+        <v>774000</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Commercial associate</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O45">
+        <v>0.04622</v>
+      </c>
+      <c r="P45">
+        <v>-12607</v>
+      </c>
+      <c r="Q45">
+        <v>-230</v>
+      </c>
+      <c r="R45">
+        <v>-4287</v>
+      </c>
+      <c r="S45">
+        <v>-4910</v>
+      </c>
+      <c r="U45">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>High skill tech staff</t>
+        </is>
+      </c>
+      <c r="AA45">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD45">
+        <v>11</v>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>Transport: type 3</t>
+        </is>
+      </c>
+      <c r="AF45">
+        <v>0.2577</v>
+      </c>
+      <c r="AG45">
+        <v>-302</v>
+      </c>
+      <c r="AH45">
+        <v>2</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>107819</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>135000</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>270000</v>
+      </c>
+      <c r="H46">
+        <v>13500</v>
+      </c>
+      <c r="I46">
+        <v>270000</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O46">
+        <v>0.022625</v>
+      </c>
+      <c r="P46">
+        <v>-12841</v>
+      </c>
+      <c r="Q46">
+        <v>-781</v>
+      </c>
+      <c r="R46">
+        <v>-447</v>
+      </c>
+      <c r="S46">
+        <v>-626</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA46">
+        <v>3</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>FRIDAY</t>
+        </is>
+      </c>
+      <c r="AD46">
+        <v>11</v>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF46">
+        <v>0.1464</v>
+      </c>
+      <c r="AG46">
+        <v>-1517</v>
+      </c>
+      <c r="AH46">
+        <v>3</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>107831</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>157500</v>
+      </c>
+      <c r="F47">
+        <v>45</v>
+      </c>
+      <c r="G47">
+        <v>785398.5</v>
+      </c>
+      <c r="H47">
+        <v>33403.5</v>
+      </c>
+      <c r="I47">
+        <v>702000</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O47">
+        <v>0.020246</v>
+      </c>
+      <c r="P47">
+        <v>-13118</v>
+      </c>
+      <c r="Q47">
+        <v>-1635</v>
+      </c>
+      <c r="R47">
+        <v>-75</v>
+      </c>
+      <c r="S47">
+        <v>-4724</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>3</v>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD47">
+        <v>8</v>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>Self-employed</t>
+        </is>
+      </c>
+      <c r="AF47">
+        <v>0.0619</v>
+      </c>
+      <c r="AG47">
+        <v>-615</v>
+      </c>
+      <c r="AH47">
+        <v>3</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>107949</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>157500</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="G48">
+        <v>416052</v>
+      </c>
+      <c r="H48">
+        <v>20367</v>
+      </c>
+      <c r="I48">
+        <v>292500</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Single / not married</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Municipal apartment</t>
+        </is>
+      </c>
+      <c r="O48">
+        <v>0.04622</v>
+      </c>
+      <c r="P48">
+        <v>-15156</v>
+      </c>
+      <c r="Q48">
+        <v>-113</v>
+      </c>
+      <c r="R48">
+        <v>-6758</v>
+      </c>
+      <c r="S48">
+        <v>-4200</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>Sales staff</t>
+        </is>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>1</v>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>MONDAY</t>
+        </is>
+      </c>
+      <c r="AD48">
+        <v>9</v>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>Trade: type 7</t>
+        </is>
+      </c>
+      <c r="AF48">
+        <v>0.0124</v>
+      </c>
+      <c r="AG48">
+        <v>-566</v>
+      </c>
+      <c r="AH48">
+        <v>3</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>108250</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>90000</v>
+      </c>
+      <c r="F49">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>247500</v>
+      </c>
+      <c r="H49">
+        <v>12375</v>
+      </c>
+      <c r="I49">
+        <v>247500</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Higher education</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Co-op apartment</t>
+        </is>
+      </c>
+      <c r="O49">
+        <v>0.010643</v>
+      </c>
+      <c r="P49">
+        <v>-11462</v>
+      </c>
+      <c r="Q49">
+        <v>-953</v>
+      </c>
+      <c r="R49">
+        <v>-5420</v>
+      </c>
+      <c r="S49">
+        <v>-2648</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>Accountants</t>
+        </is>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>Government</t>
+        </is>
+      </c>
+      <c r="AF49">
+        <v>0.0062</v>
+      </c>
+      <c r="AG49">
+        <v>-762</v>
+      </c>
+      <c r="AH49">
+        <v>1</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>108290</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>157500</v>
+      </c>
+      <c r="F50">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>450000</v>
+      </c>
+      <c r="H50">
+        <v>22500</v>
+      </c>
+      <c r="I50">
+        <v>450000</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Unaccompanied</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Secondary / secondary special</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Separated</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>House / apartment</t>
+        </is>
+      </c>
+      <c r="O50">
+        <v>0.007273999999999998</v>
+      </c>
+      <c r="P50">
+        <v>-15317</v>
+      </c>
+      <c r="Q50">
+        <v>-1381</v>
+      </c>
+      <c r="R50">
+        <v>-9385</v>
+      </c>
+      <c r="S50">
+        <v>-4191</v>
+      </c>
+      <c r="T50">
+        <v>12</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>Laborers</t>
+        </is>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>WEDNESDAY</t>
+        </is>
+      </c>
+      <c r="AD50">
+        <v>11</v>
+      </c>
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>Business Entity Type 3</t>
+        </is>
+      </c>
+      <c r="AF50">
+        <v>0.0186</v>
+      </c>
+      <c r="AG50">
+        <v>-1920</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+      <c r="AI50">
         <v>0</v>
       </c>
     </row>

--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados3.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/Split/Denegados3.xlsx
@@ -591,10 +591,10 @@
         <v>0.007273999999999998</v>
       </c>
       <c r="P2">
-        <v>-10526</v>
+        <v>28</v>
       </c>
       <c r="Q2">
-        <v>-267</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>-387</v>
@@ -711,10 +711,10 @@
         <v>0.005313</v>
       </c>
       <c r="P3">
-        <v>-16475</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>-1225</v>
@@ -831,10 +831,10 @@
         <v>0.025164</v>
       </c>
       <c r="P4">
-        <v>-17957</v>
+        <v>49</v>
       </c>
       <c r="Q4">
-        <v>-4942</v>
+        <v>13</v>
       </c>
       <c r="R4">
         <v>-7868</v>
@@ -951,10 +951,10 @@
         <v>0.010643</v>
       </c>
       <c r="P5">
-        <v>-17515</v>
+        <v>47</v>
       </c>
       <c r="Q5">
-        <v>-2412</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>-760</v>
@@ -1066,10 +1066,10 @@
         <v>0.020246</v>
       </c>
       <c r="P6">
-        <v>-9801</v>
+        <v>26</v>
       </c>
       <c r="Q6">
-        <v>-1071</v>
+        <v>2</v>
       </c>
       <c r="R6">
         <v>-4546</v>
@@ -1186,10 +1186,10 @@
         <v>0.00733</v>
       </c>
       <c r="P7">
-        <v>-14222</v>
+        <v>38</v>
       </c>
       <c r="Q7">
-        <v>-1226</v>
+        <v>3</v>
       </c>
       <c r="R7">
         <v>-6193</v>
@@ -1306,10 +1306,10 @@
         <v>0.020246</v>
       </c>
       <c r="P8">
-        <v>-16096</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>-1887</v>
+        <v>5</v>
       </c>
       <c r="R8">
         <v>-2933</v>
@@ -1426,10 +1426,10 @@
         <v>0.018209</v>
       </c>
       <c r="P9">
-        <v>-14284</v>
+        <v>39</v>
       </c>
       <c r="Q9">
-        <v>-3873</v>
+        <v>10</v>
       </c>
       <c r="R9">
         <v>-7214</v>
@@ -1541,10 +1541,10 @@
         <v>0.072508</v>
       </c>
       <c r="P10">
-        <v>-14676</v>
+        <v>40</v>
       </c>
       <c r="Q10">
-        <v>-1191</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>-1747</v>
@@ -1656,10 +1656,10 @@
         <v>0.018801</v>
       </c>
       <c r="P11">
-        <v>-16783</v>
+        <v>45</v>
       </c>
       <c r="Q11">
-        <v>-1290</v>
+        <v>3</v>
       </c>
       <c r="R11">
         <v>-8697</v>
@@ -1779,10 +1779,10 @@
         <v>0.010643</v>
       </c>
       <c r="P12">
-        <v>-14601</v>
+        <v>40</v>
       </c>
       <c r="Q12">
-        <v>-7623</v>
+        <v>20</v>
       </c>
       <c r="R12">
         <v>-8859</v>
@@ -1899,10 +1899,10 @@
         <v>0.01452</v>
       </c>
       <c r="P13">
-        <v>-19824</v>
+        <v>54</v>
       </c>
       <c r="Q13">
-        <v>-1639</v>
+        <v>4</v>
       </c>
       <c r="R13">
         <v>-9869</v>
@@ -2014,10 +2014,10 @@
         <v>0.028663</v>
       </c>
       <c r="P14">
-        <v>-15589</v>
+        <v>42</v>
       </c>
       <c r="Q14">
-        <v>-1872</v>
+        <v>5</v>
       </c>
       <c r="R14">
         <v>-4711</v>
@@ -2134,10 +2134,10 @@
         <v>0.030755</v>
       </c>
       <c r="P15">
-        <v>-16574</v>
+        <v>45</v>
       </c>
       <c r="Q15">
-        <v>-453</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>-6619</v>
@@ -2257,10 +2257,10 @@
         <v>0.018029</v>
       </c>
       <c r="P16">
-        <v>-12736</v>
+        <v>34</v>
       </c>
       <c r="Q16">
-        <v>-4859</v>
+        <v>13</v>
       </c>
       <c r="R16">
         <v>-1084</v>
@@ -2377,10 +2377,10 @@
         <v>0.072508</v>
       </c>
       <c r="P17">
-        <v>-10119</v>
+        <v>27</v>
       </c>
       <c r="Q17">
-        <v>-914</v>
+        <v>2</v>
       </c>
       <c r="R17">
         <v>-4675</v>
@@ -2497,10 +2497,10 @@
         <v>0.006233</v>
       </c>
       <c r="P18">
-        <v>-14344</v>
+        <v>39</v>
       </c>
       <c r="Q18">
-        <v>-104</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>-7748</v>
@@ -2617,10 +2617,10 @@
         <v>0.014464</v>
       </c>
       <c r="P19">
-        <v>-18639</v>
+        <v>51</v>
       </c>
       <c r="Q19">
-        <v>-1664</v>
+        <v>4</v>
       </c>
       <c r="R19">
         <v>-5524</v>
@@ -2737,10 +2737,10 @@
         <v>0.010966</v>
       </c>
       <c r="P20">
-        <v>-14092</v>
+        <v>38</v>
       </c>
       <c r="Q20">
-        <v>-5183</v>
+        <v>14</v>
       </c>
       <c r="R20">
         <v>-8209</v>
@@ -2860,10 +2860,10 @@
         <v>0.008625000000000001</v>
       </c>
       <c r="P21">
-        <v>-11051</v>
+        <v>30</v>
       </c>
       <c r="Q21">
-        <v>-3827</v>
+        <v>10</v>
       </c>
       <c r="R21">
         <v>-4658</v>
@@ -2983,10 +2983,10 @@
         <v>0.014464</v>
       </c>
       <c r="P22">
-        <v>-16910</v>
+        <v>46</v>
       </c>
       <c r="Q22">
-        <v>-3249</v>
+        <v>8</v>
       </c>
       <c r="R22">
         <v>-9496</v>
@@ -3103,10 +3103,10 @@
         <v>0.025164</v>
       </c>
       <c r="P23">
-        <v>-13902</v>
+        <v>38</v>
       </c>
       <c r="Q23">
-        <v>-2014</v>
+        <v>5</v>
       </c>
       <c r="R23">
         <v>-2649</v>
@@ -3226,10 +3226,10 @@
         <v>0.032561</v>
       </c>
       <c r="P24">
-        <v>-19540</v>
+        <v>53</v>
       </c>
       <c r="Q24">
-        <v>-623</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>-1017</v>
@@ -3346,10 +3346,10 @@
         <v>0.072508</v>
       </c>
       <c r="P25">
-        <v>-15043</v>
+        <v>41</v>
       </c>
       <c r="Q25">
-        <v>-1506</v>
+        <v>4</v>
       </c>
       <c r="R25">
         <v>-14881</v>
@@ -3466,10 +3466,10 @@
         <v>0.019689</v>
       </c>
       <c r="P26">
-        <v>-10028</v>
+        <v>27</v>
       </c>
       <c r="Q26">
-        <v>-1618</v>
+        <v>4</v>
       </c>
       <c r="R26">
         <v>-4593</v>
@@ -3589,10 +3589,10 @@
         <v>0.026392</v>
       </c>
       <c r="P27">
-        <v>-13250</v>
+        <v>36</v>
       </c>
       <c r="Q27">
-        <v>-1170</v>
+        <v>3</v>
       </c>
       <c r="R27">
         <v>-7212</v>
@@ -3709,10 +3709,10 @@
         <v>0.020246</v>
       </c>
       <c r="P28">
-        <v>-13660</v>
+        <v>37</v>
       </c>
       <c r="Q28">
-        <v>-2134</v>
+        <v>5</v>
       </c>
       <c r="R28">
         <v>-518</v>
@@ -3829,10 +3829,10 @@
         <v>0.008019</v>
       </c>
       <c r="P29">
-        <v>-12836</v>
+        <v>35</v>
       </c>
       <c r="Q29">
-        <v>-2189</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>-2353</v>
@@ -3949,10 +3949,10 @@
         <v>0.00702</v>
       </c>
       <c r="P30">
-        <v>-16918</v>
+        <v>46</v>
       </c>
       <c r="Q30">
-        <v>-1868</v>
+        <v>5</v>
       </c>
       <c r="R30">
         <v>-9370</v>
@@ -4069,10 +4069,10 @@
         <v>0.0228</v>
       </c>
       <c r="P31">
-        <v>-11223</v>
+        <v>30</v>
       </c>
       <c r="Q31">
-        <v>-374</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>-2378</v>
@@ -4192,10 +4192,10 @@
         <v>0.008068000000000001</v>
       </c>
       <c r="P32">
-        <v>-15988</v>
+        <v>43</v>
       </c>
       <c r="Q32">
-        <v>-4080</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>-3497</v>
@@ -4312,10 +4312,10 @@
         <v>0.0228</v>
       </c>
       <c r="P33">
-        <v>-13927</v>
+        <v>38</v>
       </c>
       <c r="Q33">
-        <v>-6529</v>
+        <v>17</v>
       </c>
       <c r="R33">
         <v>-5274</v>
@@ -4432,10 +4432,10 @@
         <v>0.008625000000000001</v>
       </c>
       <c r="P34">
-        <v>-16727</v>
+        <v>45</v>
       </c>
       <c r="Q34">
-        <v>-216</v>
+        <v>0</v>
       </c>
       <c r="R34">
         <v>-6809</v>
@@ -4547,10 +4547,10 @@
         <v>0.020246</v>
       </c>
       <c r="P35">
-        <v>-15154</v>
+        <v>41</v>
       </c>
       <c r="Q35">
-        <v>-2564</v>
+        <v>7</v>
       </c>
       <c r="R35">
         <v>-2789</v>
@@ -4667,10 +4667,10 @@
         <v>0.010006</v>
       </c>
       <c r="P36">
-        <v>-15013</v>
+        <v>41</v>
       </c>
       <c r="Q36">
-        <v>-2892</v>
+        <v>7</v>
       </c>
       <c r="R36">
         <v>-7849</v>
@@ -4782,10 +4782,10 @@
         <v>0.04622</v>
       </c>
       <c r="P37">
-        <v>-11565</v>
+        <v>31</v>
       </c>
       <c r="Q37">
-        <v>-4567</v>
+        <v>12</v>
       </c>
       <c r="R37">
         <v>-6042</v>
@@ -4902,10 +4902,10 @@
         <v>0.019101</v>
       </c>
       <c r="P38">
-        <v>-10009</v>
+        <v>27</v>
       </c>
       <c r="Q38">
-        <v>-158</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>-375</v>
@@ -5022,10 +5022,10 @@
         <v>0.006852</v>
       </c>
       <c r="P39">
-        <v>-15740</v>
+        <v>43</v>
       </c>
       <c r="Q39">
-        <v>-5459</v>
+        <v>14</v>
       </c>
       <c r="R39">
         <v>-212</v>
@@ -5142,10 +5142,10 @@
         <v>0.022625</v>
       </c>
       <c r="P40">
-        <v>-16053</v>
+        <v>43</v>
       </c>
       <c r="Q40">
-        <v>-1807</v>
+        <v>4</v>
       </c>
       <c r="R40">
         <v>-5167</v>
@@ -5262,10 +5262,10 @@
         <v>0.028663</v>
       </c>
       <c r="P41">
-        <v>-15177</v>
+        <v>41</v>
       </c>
       <c r="Q41">
-        <v>-7786</v>
+        <v>21</v>
       </c>
       <c r="R41">
         <v>-3562</v>
@@ -5382,10 +5382,10 @@
         <v>0.04622</v>
       </c>
       <c r="P42">
-        <v>-14125</v>
+        <v>38</v>
       </c>
       <c r="Q42">
-        <v>-446</v>
+        <v>1</v>
       </c>
       <c r="R42">
         <v>-2222</v>
@@ -5502,10 +5502,10 @@
         <v>0.02461</v>
       </c>
       <c r="P43">
-        <v>-15153</v>
+        <v>41</v>
       </c>
       <c r="Q43">
-        <v>-7443</v>
+        <v>20</v>
       </c>
       <c r="R43">
         <v>-2067</v>
@@ -5625,10 +5625,10 @@
         <v>0.018029</v>
       </c>
       <c r="P44">
-        <v>-21199</v>
+        <v>58</v>
       </c>
       <c r="Q44">
-        <v>365243</v>
+        <v>15</v>
       </c>
       <c r="R44">
         <v>-9174</v>
@@ -5740,10 +5740,10 @@
         <v>0.04622</v>
       </c>
       <c r="P45">
-        <v>-12607</v>
+        <v>34</v>
       </c>
       <c r="Q45">
-        <v>-230</v>
+        <v>0</v>
       </c>
       <c r="R45">
         <v>-4287</v>
@@ -5860,10 +5860,10 @@
         <v>0.022625</v>
       </c>
       <c r="P46">
-        <v>-12841</v>
+        <v>35</v>
       </c>
       <c r="Q46">
-        <v>-781</v>
+        <v>2</v>
       </c>
       <c r="R46">
         <v>-447</v>
@@ -5980,10 +5980,10 @@
         <v>0.020246</v>
       </c>
       <c r="P47">
-        <v>-13118</v>
+        <v>35</v>
       </c>
       <c r="Q47">
-        <v>-1635</v>
+        <v>4</v>
       </c>
       <c r="R47">
         <v>-75</v>
@@ -6100,10 +6100,10 @@
         <v>0.04622</v>
       </c>
       <c r="P48">
-        <v>-15156</v>
+        <v>41</v>
       </c>
       <c r="Q48">
-        <v>-113</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <v>-6758</v>
@@ -6220,10 +6220,10 @@
         <v>0.010643</v>
       </c>
       <c r="P49">
-        <v>-11462</v>
+        <v>31</v>
       </c>
       <c r="Q49">
-        <v>-953</v>
+        <v>2</v>
       </c>
       <c r="R49">
         <v>-5420</v>
@@ -6340,10 +6340,10 @@
         <v>0.007273999999999998</v>
       </c>
       <c r="P50">
-        <v>-15317</v>
+        <v>41</v>
       </c>
       <c r="Q50">
-        <v>-1381</v>
+        <v>3</v>
       </c>
       <c r="R50">
         <v>-9385</v>
